--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0405\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="4020" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1611,11 +1611,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1624,7 +1622,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43923</v>
+        <v>43926</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2153,6 +2151,30 @@
       </c>
       <c r="B67">
         <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B68">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B69">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B70">
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2184,6 +2184,14 @@
         <v>43927</v>
       </c>
       <c r="B71">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B72">
         <v>423</v>
       </c>
     </row>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2193,6 +2193,14 @@
       </c>
       <c r="B72">
         <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B73">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2201,6 +2201,14 @@
       </c>
       <c r="B73">
         <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B74">
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43930</v>
+        <v>43933</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2209,6 +2209,30 @@
       </c>
       <c r="B74">
         <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B75">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B76">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B77">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A78" sqref="A78:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2233,6 +2233,14 @@
       </c>
       <c r="B77">
         <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B78">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:B78"/>
+      <selection activeCell="A79" sqref="A79:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2241,6 +2241,14 @@
       </c>
       <c r="B78">
         <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B79">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:B79"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2249,6 +2249,14 @@
       </c>
       <c r="B79">
         <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B80">
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,9 +1611,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2257,6 +2257,14 @@
       </c>
       <c r="B80">
         <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B81">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43937</v>
+        <v>43940</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2265,6 +2265,30 @@
       </c>
       <c r="B81">
         <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B82">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B83">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B84">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2289,6 +2289,14 @@
       </c>
       <c r="B84">
         <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B85">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2297,6 +2297,14 @@
       </c>
       <c r="B85">
         <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B86">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,9 +1611,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2305,6 +2305,14 @@
       </c>
       <c r="B86">
         <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B87">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -87,7 +87,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -95,6 +95,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1611,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1624,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2313,6 +2319,14 @@
       </c>
       <c r="B87">
         <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>43944</v>
+      </c>
+      <c r="B88" s="4">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2327,6 +2327,30 @@
       </c>
       <c r="B88" s="4">
         <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B89" s="4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B90" s="4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B91" s="4">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2351,6 +2351,14 @@
       </c>
       <c r="B91" s="4">
         <v>323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B92" s="4">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2359,6 +2359,22 @@
       </c>
       <c r="B92" s="4">
         <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B93" s="4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B94" s="4">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43951</v>
+        <v>43957</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2383,6 +2383,54 @@
       </c>
       <c r="B95" s="4">
         <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="3">
+        <v>43952</v>
+      </c>
+      <c r="B96" s="4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
+        <v>43953</v>
+      </c>
+      <c r="B97" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="3">
+        <v>43954</v>
+      </c>
+      <c r="B98" s="4">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="3">
+        <v>43955</v>
+      </c>
+      <c r="B99" s="4">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="3">
+        <v>43956</v>
+      </c>
+      <c r="B100" s="4">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="3">
+        <v>43957</v>
+      </c>
+      <c r="B101" s="4">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2431,6 +2431,14 @@
       </c>
       <c r="B101" s="4">
         <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="3">
+        <v>43958</v>
+      </c>
+      <c r="B102" s="4">
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2439,6 +2439,30 @@
       </c>
       <c r="B102" s="4">
         <v>462</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="3">
+        <v>43959</v>
+      </c>
+      <c r="B103" s="4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="3">
+        <v>43960</v>
+      </c>
+      <c r="B104" s="4">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="3">
+        <v>43961</v>
+      </c>
+      <c r="B105" s="4">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2463,6 +2463,14 @@
       </c>
       <c r="B105" s="4">
         <v>435</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="3">
+        <v>43962</v>
+      </c>
+      <c r="B106" s="4">
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2471,6 +2471,14 @@
       </c>
       <c r="B106" s="4">
         <v>503</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B107" s="4">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2479,6 +2479,14 @@
       </c>
       <c r="B107" s="4">
         <v>372</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="3">
+        <v>43964</v>
+      </c>
+      <c r="B108" s="4">
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2487,6 +2487,14 @@
       </c>
       <c r="B108" s="4">
         <v>351</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="3">
+        <v>43965</v>
+      </c>
+      <c r="B109" s="4">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43965</v>
+        <v>43968</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2495,6 +2495,30 @@
       </c>
       <c r="B109" s="4">
         <v>320</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B110" s="4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B111" s="4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B112" s="4">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2519,6 +2519,22 @@
       </c>
       <c r="B112" s="4">
         <v>251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="3">
+        <v>43969</v>
+      </c>
+      <c r="B113" s="4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="3">
+        <v>43970</v>
+      </c>
+      <c r="B114" s="4">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2535,6 +2535,14 @@
       </c>
       <c r="B114" s="4">
         <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="3">
+        <v>43971</v>
+      </c>
+      <c r="B115" s="4">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2543,6 +2543,14 @@
       </c>
       <c r="B115" s="4">
         <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="3">
+        <v>43972</v>
+      </c>
+      <c r="B116" s="4">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43972</v>
+        <v>43975</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2552,6 +2552,33 @@
       <c r="B116" s="4">
         <v>209</v>
       </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B117" s="4">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B118" s="4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B119" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B120" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1619,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2578,7 +2578,12 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B120" s="4"/>
+      <c r="A120" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B120" s="4">
+        <v>331</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2583,6 +2583,14 @@
       </c>
       <c r="B120" s="4">
         <v>331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B121" s="4">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2591,6 +2591,22 @@
       </c>
       <c r="B121" s="4">
         <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B122" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B123" s="4">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2607,6 +2607,30 @@
       </c>
       <c r="B123" s="4">
         <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B124" s="4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B125" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B126" s="4">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2631,6 +2631,14 @@
       </c>
       <c r="B126" s="4">
         <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B127" s="4">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2639,6 +2639,22 @@
       </c>
       <c r="B127" s="4">
         <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B128" s="4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="3">
+        <v>43985</v>
+      </c>
+      <c r="B129" s="4">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2655,6 +2655,14 @@
       </c>
       <c r="B129" s="4">
         <v>264</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="3">
+        <v>43986</v>
+      </c>
+      <c r="B130" s="4">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2663,6 +2663,30 @@
       </c>
       <c r="B130" s="4">
         <v>263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="3">
+        <v>43987</v>
+      </c>
+      <c r="B131" s="4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="3">
+        <v>43988</v>
+      </c>
+      <c r="B132" s="4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="3">
+        <v>43989</v>
+      </c>
+      <c r="B133" s="4">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2687,6 +2687,14 @@
       </c>
       <c r="B133" s="4">
         <v>199</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="3">
+        <v>43990</v>
+      </c>
+      <c r="B134" s="4">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2695,6 +2695,14 @@
       </c>
       <c r="B134" s="4">
         <v>269</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="3">
+        <v>43991</v>
+      </c>
+      <c r="B135" s="4">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2703,6 +2703,14 @@
       </c>
       <c r="B135" s="4">
         <v>209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="3">
+        <v>43992</v>
+      </c>
+      <c r="B136" s="4">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2711,6 +2711,14 @@
       </c>
       <c r="B136" s="4">
         <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="3">
+        <v>43993</v>
+      </c>
+      <c r="B137" s="4">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43993</v>
+        <v>43997</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2719,6 +2719,38 @@
       </c>
       <c r="B137" s="4">
         <v>156</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B138" s="4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B139" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B140" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B141" s="4">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2751,6 +2751,14 @@
       </c>
       <c r="B141" s="4">
         <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B142" s="4">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2759,6 +2759,14 @@
       </c>
       <c r="B142" s="4">
         <v>154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B143" s="4">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2767,6 +2767,14 @@
       </c>
       <c r="B143" s="4">
         <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B144" s="4">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44000</v>
+        <v>44003</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2775,6 +2775,30 @@
       </c>
       <c r="B144" s="4">
         <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B145" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B146" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B147" s="4">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2799,6 +2799,14 @@
       </c>
       <c r="B147" s="4">
         <v>129</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B148" s="4">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2807,6 +2807,14 @@
       </c>
       <c r="B148" s="4">
         <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B149" s="4">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2815,6 +2815,14 @@
       </c>
       <c r="B149" s="4">
         <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B150" s="4">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2823,6 +2823,14 @@
       </c>
       <c r="B150" s="4">
         <v>125</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B151" s="4">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44007</v>
+        <v>44012</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2831,6 +2831,46 @@
       </c>
       <c r="B151" s="4">
         <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B152" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B153" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B154" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B155" s="4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B156" s="4">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2871,6 +2871,14 @@
       </c>
       <c r="B156" s="4">
         <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B157" s="4">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2879,6 +2879,14 @@
       </c>
       <c r="B157" s="4">
         <v>167</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B158" s="4">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2887,6 +2887,14 @@
       </c>
       <c r="B158" s="4">
         <v>172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B159" s="4">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2895,6 +2895,30 @@
       </c>
       <c r="B159" s="4">
         <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B160" s="4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B161" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B162" s="4">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2919,6 +2919,14 @@
       </c>
       <c r="B162" s="4">
         <v>274</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B163" s="4">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2927,6 +2927,14 @@
       </c>
       <c r="B163" s="4">
         <v>179</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B164" s="4">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2935,6 +2935,14 @@
       </c>
       <c r="B164" s="4">
         <v>189</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B165" s="4">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\7月\20200713\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44021</v>
+        <v>44025</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2943,6 +2943,38 @@
       </c>
       <c r="B165" s="4">
         <v>252</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B166" s="4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B167" s="4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B168" s="4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B169" s="4">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\7月\20200713\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44025</v>
+        <v>44027</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2975,6 +2975,22 @@
       </c>
       <c r="B169" s="4">
         <v>401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B170" s="4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B171" s="4">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2991,6 +2991,14 @@
       </c>
       <c r="B171" s="4">
         <v>382</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B172" s="4">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2999,6 +2999,14 @@
       </c>
       <c r="B172" s="4">
         <v>424</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B173" s="4">
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3007,6 +3007,38 @@
       </c>
       <c r="B173" s="4">
         <v>457</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B174" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B175" s="4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" s="3">
+        <v>44032</v>
+      </c>
+      <c r="B176" s="4">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" s="3">
+        <v>44033</v>
+      </c>
+      <c r="B177" s="4">
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -87,7 +87,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -98,6 +98,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1617,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44033</v>
+        <v>44038</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3039,6 +3045,46 @@
       </c>
       <c r="B177" s="4">
         <v>437</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" s="5">
+        <v>44034</v>
+      </c>
+      <c r="B178" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" s="5">
+        <v>44035</v>
+      </c>
+      <c r="B179" s="6">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B180" s="6">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" s="5">
+        <v>44037</v>
+      </c>
+      <c r="B181" s="6">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" s="5">
+        <v>44038</v>
+      </c>
+      <c r="B182" s="6">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:B183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1636,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44038</v>
+        <v>44039</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3085,6 +3085,14 @@
       </c>
       <c r="B182" s="6">
         <v>494</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" s="5">
+        <v>44039</v>
+      </c>
+      <c r="B183" s="6">
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44039</v>
+        <v>44040</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3093,6 +3093,14 @@
       </c>
       <c r="B183" s="6">
         <v>458</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" s="5">
+        <v>44040</v>
+      </c>
+      <c r="B184" s="6">
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B184"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3101,6 +3101,14 @@
       </c>
       <c r="B184" s="6">
         <v>439</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" s="5">
+        <v>44041</v>
+      </c>
+      <c r="B185" s="6">
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1636,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3109,6 +3109,14 @@
       </c>
       <c r="B185" s="6">
         <v>392</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" s="5">
+        <v>44042</v>
+      </c>
+      <c r="B186" s="6">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3117,6 +3117,14 @@
       </c>
       <c r="B186" s="6">
         <v>436</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" s="5">
+        <v>44043</v>
+      </c>
+      <c r="B187" s="6">
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3125,6 +3125,30 @@
       </c>
       <c r="B187" s="6">
         <v>341</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" s="5">
+        <v>44044</v>
+      </c>
+      <c r="B188" s="6">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" s="5">
+        <v>44045</v>
+      </c>
+      <c r="B189" s="6">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B190" s="6">
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3151,6 +3151,14 @@
         <v>446</v>
       </c>
     </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" s="5">
+        <v>44047</v>
+      </c>
+      <c r="B191" s="6">
+        <v>408</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B192" sqref="B192"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44046</v>
+        <v>44048</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3157,6 +3157,14 @@
       </c>
       <c r="B191" s="6">
         <v>408</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" s="5">
+        <v>44048</v>
+      </c>
+      <c r="B192" s="6">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3165,6 +3165,14 @@
       </c>
       <c r="B192" s="6">
         <v>389</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" s="5">
+        <v>44049</v>
+      </c>
+      <c r="B193" s="6">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B194" sqref="B194"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44049</v>
+        <v>44054</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3173,6 +3173,46 @@
       </c>
       <c r="B193" s="6">
         <v>330</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" s="5">
+        <v>44050</v>
+      </c>
+      <c r="B194" s="6">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" s="5">
+        <v>44051</v>
+      </c>
+      <c r="B195" s="6">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196" s="5">
+        <v>44052</v>
+      </c>
+      <c r="B196" s="6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197" s="5">
+        <v>44053</v>
+      </c>
+      <c r="B197" s="6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198" s="5">
+        <v>44054</v>
+      </c>
+      <c r="B198" s="6">
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44054</v>
+        <v>44056</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3213,6 +3213,22 @@
       </c>
       <c r="B198" s="6">
         <v>418</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199" s="5">
+        <v>44055</v>
+      </c>
+      <c r="B199" s="6">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200" s="5">
+        <v>44056</v>
+      </c>
+      <c r="B200" s="6">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44056</v>
+        <v>44060</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3229,6 +3229,38 @@
       </c>
       <c r="B200" s="6">
         <v>307</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A201" s="5">
+        <v>44057</v>
+      </c>
+      <c r="B201" s="6">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A202" s="5">
+        <v>44058</v>
+      </c>
+      <c r="B202" s="6">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A203" s="5">
+        <v>44059</v>
+      </c>
+      <c r="B203" s="6">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A204" s="5">
+        <v>44060</v>
+      </c>
+      <c r="B204" s="6">
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3261,6 +3261,14 @@
       </c>
       <c r="B204" s="6">
         <v>418</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A205" s="5">
+        <v>44061</v>
+      </c>
+      <c r="B205" s="6">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
